--- a/data_voor_swing/gebiedsdefinities/arrondiss.xlsx
+++ b/data_voor_swing/gebiedsdefinities/arrondiss.xlsx
@@ -829,16 +829,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="23">
-        <v>99999</v>
+        <v>99992</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Arrondissement onbekend</t>
+          <t>Arrondissement onbekend (Brussel)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Arrondissement onbekend</t>
+          <t>Arrondissement onbekend (Brussel)</t>
         </is>
       </c>
     </row>
@@ -847,16 +847,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="23">
-        <v>99992</v>
+        <v>99991</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Arrondissement onbekend (Brussel)</t>
+          <t>Arrondissement onbekend (Vlaanderen)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Arrondissement onbekend (Brussel)</t>
+          <t>Arrondissement onbekend (Vlaanderen)</t>
         </is>
       </c>
     </row>
@@ -865,16 +865,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="23">
-        <v>99991</v>
+        <v>99999</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Arrondissement onbekend (Vlaanderen)</t>
+          <t>Buiten Vlaanderen en Brussel</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Arrondissement onbekend (Vlaanderen)</t>
+          <t>Buiten Vlaanderen en Brussel</t>
         </is>
       </c>
     </row>

--- a/data_voor_swing/gebiedsdefinities/arrondiss.xlsx
+++ b/data_voor_swing/gebiedsdefinities/arrondiss.xlsx
@@ -382,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -878,6 +878,24 @@
         </is>
       </c>
     </row>
+    <row r="28" spans="1:4" s="0" outlineLevel="0">
+      <c r="A28" s="23">
+        <v>27</v>
+      </c>
+      <c r="B28" s="23">
+        <v>99993</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Niet te lokaliseren</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Niet te lokaliseren</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
